--- a/data/financial_statements/soci/DHR.xlsx
+++ b/data/financial_statements/soci/DHR.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,1651 +608,1690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>8369000000</v>
+      </c>
+      <c r="C2">
         <v>7663000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7751000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7688000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8148000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7229000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7218000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6858000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6760000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5884000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5297000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4343000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4868300000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>4378000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4444500000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4220200000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2519500000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4853100000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4981000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4695400000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2274799000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4528200000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4510100000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4205700000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4584300000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4132100000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4241900000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3924100000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1266600000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3512200000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4960200000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4694700000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>5417200000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4707100000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4963600000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4662700000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5266700000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4669100000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4737500000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4444700000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0271</v>
+      </c>
+      <c r="C3">
         <v>0.06</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0738</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.121</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2053</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2286</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.3627</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.5790999999999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3886</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.344</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.1918</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0291</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.9322</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.0979</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.1077</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.1012</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1076</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0718</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1044</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1164</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>-0.5038</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0959</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.06320000000000001</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0718</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2.6194</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1765</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.1448</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.1641</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.7662</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.2539</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0007</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0069</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0286</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0081</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0477</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.049</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0586</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0574</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0404</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0298</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3430000000</v>
+      </c>
+      <c r="C4">
         <v>3079000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3030000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2983000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3205000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2870000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2821000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2605000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2806000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2658000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2445000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1900000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2164400000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1936600000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1960700000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1865300000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1165700000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2162600000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2163900000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2051800000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1056900000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1991400000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2027800000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1871400000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2084300000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1846100000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1860600000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1756800000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>501099900</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1618800000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2316200000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2226500000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2613500000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2254800000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2343400000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2209800000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2555000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2244400000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2242000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2119000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>4939000000</v>
+      </c>
+      <c r="C5">
         <v>4584000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4721000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4705000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4943000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4359000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4397000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4253000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3954000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3226000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2852000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2443000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2703900000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2441400000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2483800000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2354900000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1353801000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2690500000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2817100000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2643600000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1217899000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2536800000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>2482300000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2334300000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2500001000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2286000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2381300000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2167300000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>765499800</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1893400000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2644000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2468200000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>2803700000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2452300000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2620200000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2452900000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2711700000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2424700000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2495500000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2325700000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>453000000</v>
+      </c>
+      <c r="C6">
         <v>420000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>431000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>441000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>495000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>441000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>426000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>380000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>396000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>342000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>323000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>287000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>293800000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>282600000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>282100000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>267500000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>147400000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>301200000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>311700000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>298700000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>126500000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>279200000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>283300000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>267400000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>268000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>241100000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>239900000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>226100000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>45200000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>212200000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>304600000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>299400000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>336100000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>288100000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>336400000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>313400000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>332200000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>309100000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>312200000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>296400000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>2190000000</v>
+      </c>
+      <c r="C7">
         <v>2149000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2085000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2092000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2294000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2062000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1966000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1876000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1957000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1796000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1685000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1458000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1448800000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1382500000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1390000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1367700000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>592600000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1558600000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1637900000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1601900000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>572000100</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1498400000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1522300000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1449900000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1519100000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1345800000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1431300000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1328100000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>727600100</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>1201200000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1405000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1413700000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1580300000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1298000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1394500000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1350600000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1491500000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1303200000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1339700000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1298400000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>2296000000</v>
+      </c>
+      <c r="C8">
         <v>2015000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2205000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2172000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2154000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1309000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2005000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1997000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1601000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1088000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>844000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>698000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>961299800</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>776300000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>811700000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>719700200</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>613800800</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>830700200</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>867500000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>743000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>519399900</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>759200200</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>676700000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>617000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>712900900</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>699100100</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>710099900</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>613100100</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-7300500</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>480000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>934400100</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>755100300</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>887299800</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>866200000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>889300300</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>788900400</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>888000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>812400100</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>843600100</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>730900400</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>42000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>51000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>54000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>57000000</v>
-      </c>
-      <c r="F9">
-        <v>63000000</v>
       </c>
       <c r="G9">
         <v>63000000</v>
       </c>
       <c r="H9">
+        <v>63000000</v>
+      </c>
+      <c r="I9">
         <v>58000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>72000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>76000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>78000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>47000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>44000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>64000000</v>
+      </c>
+      <c r="C10">
         <v>42000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>51000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>54000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>56000000</v>
-      </c>
-      <c r="F10">
-        <v>62000000</v>
       </c>
       <c r="G10">
         <v>62000000</v>
       </c>
       <c r="H10">
+        <v>62000000</v>
+      </c>
+      <c r="I10">
         <v>58000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>72000000</v>
-      </c>
-      <c r="J10">
-        <v>78000000</v>
       </c>
       <c r="K10">
         <v>78000000</v>
       </c>
       <c r="L10">
+        <v>78000000</v>
+      </c>
+      <c r="M10">
         <v>47000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>43800000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>24000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>19700000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>20500000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>13400000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>41300000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>43200000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>39100000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>19200000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>39900000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>40700000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>40300000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>32300000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>43700000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>55500000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>52900000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>42400000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>39100000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>29000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>29300000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>26500000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>29600000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>33200000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>32500000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>32300000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>35000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>39400000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>39200000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-103000000</v>
+      </c>
+      <c r="C11">
         <v>-84000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-136000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-73000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-69000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>78000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>38000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>86000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-59000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-67000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>377000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>13000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>13900000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>10300000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>11500000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>300000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-1300000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-29400000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-32400000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-29900000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>64000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-29400000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-31900000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-31800000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-16500000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-222400000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-55500000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>170500000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-43000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-26100000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-26700000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-27000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>77100000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>12200000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-10300000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-27600000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>171000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-33600000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-37800000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>191500000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>2193000000</v>
+      </c>
+      <c r="C12">
         <v>1931000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2069000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2099000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2085000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1387000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2043000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2083000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1542000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1021000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1221000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>711000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>975200000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>786600000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>823200000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>720000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>612500000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>801300000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>835100000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>713100000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>583399800</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>729800000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>644800000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>585200000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>696400100</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>476700000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>654600000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>783600000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-50300000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>453900000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>907700000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>728100000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>964400000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>878400000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>879000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>761300000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1059000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>778800000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>805800000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>922400000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>-39000000</v>
+      </c>
+      <c r="C13">
         <v>359000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>389000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>374000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>297000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>229000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>344000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>381000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>301000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>138000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>294000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>116000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>182600000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>155900000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>146800000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>387700000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>110600000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>137600000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>161300000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>146500000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>24400000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>157700000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>87500000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>101400000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-50600000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>74100000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>236600000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>197800000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-143600000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>74000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>192200000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>170100000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>302700000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>197100000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>202600000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>181600000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>269700000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>181800000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>189000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>230500000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>2232000000</v>
+      </c>
+      <c r="C14">
         <v>1572000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1680000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1725000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1788000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1158000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1699000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1702000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1241000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>883000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>927000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>595000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>792600000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>630700000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>676400000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>332300000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>501900000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>663700000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>673800000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>566600000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>559000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>572100000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>557300000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>483800000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>747000200</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>402600000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>418000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>585800000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>93299900</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>379900000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>715500000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>558000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>661700000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>681300000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>676400000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>579700000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>789300000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>597000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>616800000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>691900000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>22000000</v>
+      </c>
+      <c r="C15">
         <v>21000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>22000000</v>
-      </c>
-      <c r="D15">
-        <v>41000000</v>
       </c>
       <c r="E15">
         <v>41000000</v>
@@ -2159,2664 +2312,2715 @@
         <v>41000000</v>
       </c>
       <c r="K15">
+        <v>41000000</v>
+      </c>
+      <c r="L15">
         <v>35000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>19000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>19200000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>19600000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>22700000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6500000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-200</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-100</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16">
         <v>5900000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>2210000000</v>
+      </c>
+      <c r="C17">
         <v>1551000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1658000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1684000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1747000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1117000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1744000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1661000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1200000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>842000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>892000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>576000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1255700000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>648400000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>708600000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>327300000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>746900000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>663700000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>673800000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>566600000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>856600200</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>572100000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>557300000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>506100000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>746999900</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>391600000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>656700000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>758400000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>688599900</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1403300000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>695700000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>569800000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>661700000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>680600000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>676400000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>579700000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>789300000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>597000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>616800000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>691900000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>2.13</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.28</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2.35</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.44</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.56</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2.44</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.33</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.69</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.18</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1.27</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.83</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.75</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.9</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.99</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.46</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1.06</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.95</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.96</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.8100000000000001</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1.23</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.82</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.8</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.73</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1.08</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.57</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.95</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1.1</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2.04</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.98</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.97</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.96</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.83</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1.13</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.86</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.89</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>2.1</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2.25</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2.31</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2.39</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.54</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2.29</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.66</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.16</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1.24</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.8100000000000001</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.73</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.89</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.97</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.46</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1.05</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.93</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.95</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.8</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1.21</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.8100000000000001</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.79</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.72</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1.07</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1.09</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.99</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2.01</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.97</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.79</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.92</v>
-      </c>
-      <c r="AH19">
-        <v>0.95</v>
       </c>
       <c r="AI19">
         <v>0.95</v>
       </c>
       <c r="AJ19">
+        <v>0.95</v>
+      </c>
+      <c r="AK19">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1.11</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.84</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.87</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>728900000</v>
+      </c>
+      <c r="C20">
         <v>728500000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>726700000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>716300000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>714600000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>715100000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>714500000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>713200000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>706200000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>710900000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>705100000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>697200000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>715000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>718800000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>717600000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>707600000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>700600000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>701400000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>700200000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>698600000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>695800000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>696200000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>695400000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>694300000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>691200000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>692200000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>690900000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>688600000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>698100000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>688500000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>709500000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>707200000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>704800000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>702600000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>701200000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>700100000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>699000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>697700000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>695200000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>692000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>745700000</v>
+      </c>
+      <c r="C21">
         <v>737400000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>736000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>737700000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>736800000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>727000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>736000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>735100000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>718700000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>724300000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>718200000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>707900000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>725500000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>729300000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>727900000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>718500000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>710200000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>710600000</v>
-      </c>
-      <c r="S21">
-        <v>709500000</v>
       </c>
       <c r="T21">
         <v>709500000</v>
       </c>
       <c r="U21">
+        <v>709500000</v>
+      </c>
+      <c r="V21">
         <v>706100000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>705600000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>705400000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>705700000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>699800000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>701300000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>698900000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>697100000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>708500000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>698700000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>719600000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>718700000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>717600000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>716200000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>715600000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>714800000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>713800000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>711900000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>709800000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>708400000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.5901999999999999</v>
+      </c>
+      <c r="C22">
         <v>0.5982</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.6091</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.612</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.6067</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.603</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.6092</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.6202</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.5849</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.5483</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.5384</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.5625</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.5554</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.5577</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.5588</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.5580000000000001</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.5373</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.5544</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.5656</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.5629999999999999</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.5354</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.5602</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.5504</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.555</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.5453</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.5532</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.5614</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.5523</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.6044</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.5391</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.533</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.5256999999999999</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.5175999999999999</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.521</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.5279</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.5261</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.5149</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.5193</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.5268</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.5233</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.2743</v>
+      </c>
+      <c r="C23">
         <v>0.263</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.2845</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.2825</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.2644</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1811</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.2778</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.2912</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.2368</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1849</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1593</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.1607</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1975</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1773</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.1826</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1705</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.2436</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1712</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1742</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1582</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.2283</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1677</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.15</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.1467</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1555</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.1692</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1674</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1562</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-0.0058</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1367</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1884</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1608</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.1638</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.184</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1792</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1692</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1686</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.174</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.1781</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.1644</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.262</v>
+      </c>
+      <c r="C24">
         <v>0.252</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.2669</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.273</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.2559</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.1919</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.283</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.3037</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.2281</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.1735</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.2305</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.1637</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.2003</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.1797</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.1852</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.1706</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.2431</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.1651</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.1677</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.1519</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.2565</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.1612</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.143</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.1391</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.1519</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.1154</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.1543</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.1997</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-0.0397</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.1292</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.183</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.1551</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.178</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.1866</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.1771</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.1633</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.2011</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.1668</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.1701</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.2075</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>0.2641</v>
+      </c>
+      <c r="C25">
         <v>0.2024</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.2139</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.219</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.2144</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.1545</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.2416</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.2422</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.1775</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.1431</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.1684</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.1326</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.2579</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.1481</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.1594</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.0776</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.2964</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.1368</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.1353</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.1207</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.3766</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.1263</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.1236</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.1203</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.1629</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.0948</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.1548</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.1933</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.5437</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.3996</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.1403</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.1214</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.1221</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.1446</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.1363</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.1243</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.1499</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.1279</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.1302</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.1557</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>2555000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2757000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2737000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2754000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1880000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2530000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2528000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2149000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1800000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1519000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>995000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1260500000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1071700000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1110000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1015800000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>814900800</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1152200000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1202100000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1063800000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>716099900</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1070600000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>979899900</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>922600000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1018501000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>976300100</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>987699800</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>880800100</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>264699500</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>616300000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1171400000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>990600300</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>940899800</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1070600000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1124700000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1013600000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1076900000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1037700000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1063200000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>947700400</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>2296000000</v>
+      </c>
+      <c r="C27">
         <v>2015000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2205000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2172000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2154000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1309000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2005000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1997000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1601000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1088000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>844000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>698000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>961299800</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>776300000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>811700000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>719700200</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>613799800</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>830700200</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>867500000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>743000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>519399700</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>759200200</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>676700000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>617000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>712901100</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>699100100</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>710099900</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>613100100</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-7300300</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>480000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>934400100</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>755100300</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>887299800</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>866200000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>889300300</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>788900400</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>888000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>812400100</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>843600100</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>730900400</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>2232000000</v>
+      </c>
+      <c r="C28">
         <v>1572000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1680000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1725000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1788000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1158000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1699000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1702000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1241000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>883000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>927000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>595000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>792600000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>630700000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>676400000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>332300000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>501900000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>663700000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>673800000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>566600000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>559000100</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>572100000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>557300000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>483800000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>746999900</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>402600000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>418000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>585800000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>93299900</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>379900000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>715500000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>558000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>661700000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>681300000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>676400000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>579700000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>789300000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>597000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>616800000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>691900000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>86000000</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="M29">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>482300000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>37300000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>54900000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1500000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>297600000</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>22300000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-11000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>238700000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>172600000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>595299900</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1023400000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-19800000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>11800000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>960400000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-700000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>2232000000</v>
+      </c>
+      <c r="C30">
         <v>1572000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1680000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1725000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1788000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1158000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1785000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1702000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1241000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>883000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>927000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>595000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1274900000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>668000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>731300000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>333800000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>746900000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>663700000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>673800000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>566600000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>856600000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>572100000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>557300000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>506100000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>746999900</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>391600000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>656700000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>758400000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>688599900</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1403300000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>695700000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>569800000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>661700000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>680600000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>676400000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>579700000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>789300000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>597000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>616800000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>691900000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>3.03</v>
+      </c>
+      <c r="C31">
         <v>2.13</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.28</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2.4082</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.3836</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.56</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.32</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.3864</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.6666</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.18</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.27</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.8534</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.09</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.85</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.91</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.46</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.7104</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.9463</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.9623</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.8111</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.8</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.82</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.8</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.7</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.09</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.58</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.6</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.85</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.15</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.55</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.01</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.79</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.9388</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.97</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.9646</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.83</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.1292</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.86</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.89</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>2.99</v>
+      </c>
+      <c r="C32">
         <v>2.1</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2.25</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2.3383</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2.3647</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.54</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2.28</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.3153</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.6495</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.16</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1.24</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.8405</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.07</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.84</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.9</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.45</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>0.7077</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.9340000000000001</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.9497</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.7986</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.79</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.8100000000000001</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.79</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0.6899999999999999</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1.07</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>0.57</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>0.6</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.84</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.16</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.54</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>0.99</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>0.78</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.9221</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.95</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>0.9452</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0.8110000000000001</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>1.1058</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.8386</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.869</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.9767</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33">
         <v>0.12</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.6579</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.05</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.08</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.0021</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.42</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.03</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-0.02</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.34</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.25</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.82</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>1.46</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-0.03</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.02</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>1.341</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-0.001</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34">
         <v>0.12</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.6778999999999999</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.05</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.08</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.0021</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.43</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.03</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-0.02</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.35</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.25</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.83</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>1.49</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-0.03</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.02</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>1.371</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>-0.001</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>3.0621</v>
+      </c>
+      <c r="C35">
         <v>2.1579</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>2.3118</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>2.4082</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2.4982</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1.6194</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2.4983</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2.3864</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1.7526</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>1.2421</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>1.3147</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.8534</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>1.7868</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.9293</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>1.0191</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.4717</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>1.0643</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.9463</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.9623</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.8111</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1.2295</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.8217</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.8014</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.7289</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>1.077</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.5657</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.9505</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>1.1014</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.9849</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>2.0382</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.9805</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.8057</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.9388</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.9687</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.9646</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.828</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>1.1292</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.8557</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.8872</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.9999</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>2.9932</v>
+      </c>
+      <c r="C36">
         <v>2.1318</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>2.2826</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>2.3383</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2.3975</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1.5928</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2.4253</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2.3153</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1.7227</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>1.2191</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>1.2907</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0.8405</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1.7609</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>0.9159</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>1.0047</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.4646</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>1.0505</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.9340000000000001</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.9497</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>0.7986</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>1.2114</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.8108</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.79</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>0.7171999999999999</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1.0632</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>0.5584</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>0.9396</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>1.0879</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>0.9707</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>2.0084</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>0.9668</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>0.7927999999999999</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>0.9221</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>0.9503</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>0.9452</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>0.8110000000000001</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>1.1058</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>0.8386</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>0.869</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>0.9767</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
         <v>737400000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>736000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>737700000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>738400000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>727000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>736000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>735100000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>724500000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>724300000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>718200000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>707900000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>726300000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>729300000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>727900000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>718500000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>711200000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>710600000</v>
-      </c>
-      <c r="S37">
-        <v>709500000</v>
       </c>
       <c r="T37">
         <v>709500000</v>
       </c>
       <c r="U37">
+        <v>709500000</v>
+      </c>
+      <c r="V37">
         <v>707600000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>705600000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>705400000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>705700000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>701900000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>701300000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>698900000</v>
-      </c>
-      <c r="AB37">
-        <v>697100000</v>
       </c>
       <c r="AC37">
         <v>697100000</v>
       </c>
       <c r="AD37">
+        <v>697100000</v>
+      </c>
+      <c r="AE37">
         <v>698700000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>719600000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>718700000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>717600000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>716200000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>715600000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>714800000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>713800000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>711900000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>709800000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>708400000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>0.3334</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.3557</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.356</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.338</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.2601</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.3505</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.3686</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.3179</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.3059</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.2868</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.2291</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.2589</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.2448</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.2497</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.2407</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.3234</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.2374</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.2413</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.2266</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.3148</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.2364</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.2173</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.2194</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.2222</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.2363</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.2328</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.2245</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.209</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.1755</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.2362</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.211</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.1737</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.2274</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.2266</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.2174</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.2045</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.2222</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.2244</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.2132</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>0.3036</v>
+      </c>
+      <c r="C39">
         <v>0.2623</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.258</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.256</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.2863</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.2814</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.2937</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.2728</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.3286</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.2928</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>0.2728</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.1886</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.2283</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.2206</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.2636</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>0.1667</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0.4912</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>0.1895</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.208</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.1765</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.3669</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.2368</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.2241</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>0.1332</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>0.1416</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>0.198</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>0.3022</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>0.1969</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>0.9724</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.2712</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>0.2206</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>0.1115</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>0.2288</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>0.2159</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>0.1998</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>0.1096</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>0.2047</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>0.208</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>0.1898</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>0.1432</v>
       </c>
     </row>
